--- a/Two Twenty Credit Options.xlsx
+++ b/Two Twenty Credit Options.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="By Module" sheetId="1" r:id="rId1"/>
@@ -846,9 +846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1130,7 +1128,7 @@
         <v>20</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" ref="D15:D17" si="3" xml:space="preserve"> (100 / 120 * C15)</f>
+        <f t="shared" ref="D15" si="3" xml:space="preserve"> (100 / 120 * C15)</f>
         <v>16.666666666666668</v>
       </c>
       <c r="E15" s="8">
@@ -1138,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="7">
-        <f t="shared" ref="F14:F17" si="4">E15*0.75</f>
+        <f t="shared" ref="F15" si="4">E15*0.75</f>
         <v>0</v>
       </c>
     </row>
@@ -1213,7 +1211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
